--- a/springboot/springboot-Excel/JXLS2/src/main/resources/a.xlsx
+++ b/springboot/springboot-Excel/JXLS2/src/main/resources/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\IDEA\common\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F13CF-FE05-423C-B244-5F96D596D6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B10F4D7-374E-4CEC-A2B2-D5CB926187D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2805" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF8E629-93CF-494F-82B0-1A51D3B79251}"/>
+    <workbookView xWindow="30240" yWindow="4305" windowWidth="21600" windowHeight="11385" xr2:uid="{5CF8E629-93CF-494F-82B0-1A51D3B79251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,25 +50,72 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="D2")</t>
+jx:area(lastCell="E2")
+jx:mergeCells(cols="2",  lastCell="B1")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5C1F7795-0C97-4F67-8265-61B5BC0F6731}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{70390728-116A-4506-8DF3-66B1A7411102}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:mergeCells(rows="employees.employeesList.size()", lastCell="A2")</t>
+          <t>ht:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:mergeCells(cols="1", rows="employees.employeesList.size()", lastCell="A2")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{96F09EFA-7496-4E7C-A707-1F3BD3D1CD0D}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{594CB248-51BD-4639-8CC4-7018B47017C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ht:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="employees.employeesList" var="em" lastCell="B2")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{96F09EFA-7496-4E7C-A707-1F3BD3D1CD0D}">
       <text>
         <r>
           <rPr>
@@ -107,7 +154,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>" var="em" lastCell="D2")</t>
+          <t>" var="em" lastCell="E2")</t>
         </r>
       </text>
     </comment>
@@ -116,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +194,10 @@
   </si>
   <si>
     <t>${employees.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${util:xuhao(em.payment)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,38 +243,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,23 +267,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -257,23 +301,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,39 +625,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79570663-DBAF-403E-A25D-304A8ED1B5F9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
